--- a/biology/Médecine/Daniel_Colin/Daniel_Colin.xlsx
+++ b/biology/Médecine/Daniel_Colin/Daniel_Colin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Daniel Colin, né le 30 septembre 1933 dans le 12e arrondissement de Paris[1] et mort le 14 juin 2019 à Toulon[2], est un homme politique français, député du Var de 1986 à 1997.
+Daniel Colin, né le 30 septembre 1933 dans le 12e arrondissement de Paris et mort le 14 juin 2019 à Toulon, est un homme politique français, député du Var de 1986 à 1997.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Colin est docteur en chirurgie dentaire, ex-enseignant à la Faculté d’odontologie de Marseille, ancien député, membre honoraire de l’Assemblée nationale, président d’honneur de TVT Innovation.
 Il a été élu et réélu député du Var entre 1986 et 1997 (trois mandats : 01/04/1986, 12/06/1988 et 28/03/1993), conseiller régional de la région Provence-Alpes-Côte d'Azur de 1981 à 1998, adjoint au maire de Toulon de 1977 à 1986 et conseiller municipal de 1986 à 1997, membre du Conseil de l’Europe de 1979 à 1994.
 Il a fait partie du groupe UDF à l’Assemblée nationale et au conseil régional de Provence-Alpes-Côte d'Azur.
 Daniel Colin a effectué son service militaire en Algérie entre 1960 et 1962 en qualité de dentiste sous-lieutenant.
-Il est le fils du général de brigade Jean-Eugène Colin (1896-1972), et le père de Jean-Pierre Colin, conseiller régional PACA, et de Nathalie Colin-Oesterlé, euro-députée[3].
+Il est le fils du général de brigade Jean-Eugène Colin (1896-1972), et le père de Jean-Pierre Colin, conseiller régional PACA, et de Nathalie Colin-Oesterlé, euro-députée.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1977 à 1986 : Adjoint au maire de Toulon
 1986 à 1997 : Conseiller municipal de Toulon
@@ -581,7 +597,9 @@
           <t>Assemblée nationale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Élu en 1986 pour la législature 1986 – 1988
 Réélu en 1988 pour la législature 1988 - 1993
@@ -615,7 +633,9 @@
           <t>Rapport majeurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Assemblée nationale :
 Désarmement nucléaire stratégique : négociations START, 1989-1991
@@ -651,7 +671,9 @@
           <t>Activités publiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Président d’honneur de TVT Innovation
@@ -693,9 +715,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Officier de la Légion d'honneur (2008)[4].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Officier de la Légion d'honneur (2008).</t>
         </is>
       </c>
     </row>
